--- a/addressbook-web-tests/addressbook-web-tests/groups.xlsx
+++ b/addressbook-web-tests/addressbook-web-tests/groups.xlsx
@@ -2,19 +2,19 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\Vasilisa\source\repos\csharp_training\addressbook-web-tests\addressbook-test-data-generators\bin\Debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vsmirnova\source\repos\csharp_training\addressbook-web-tests\addressbook-test-data-generators\bin\Debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15270" windowHeight="6825"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19455" windowHeight="14580"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,62 +26,61 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
-    <t>;&gt;$06LWK1\2OGF*.HY%G#</t>
-  </si>
-  <si>
-    <t>M;3RFXM%263'^=J%*(X@[0C)TE[XB6)*E2RJ^F&amp;`_,I]&lt;AINECO^</t>
-  </si>
-  <si>
-    <t>C.=Y*^!^VC]-)CKLa(E"YBOHGM4]-3`H+;!$5RTH%")JMP3^_"F;*\X!@W2&gt;K&amp;PCD4"PBG7.5^^V9%[X;7_,NE?0C!E?A6^`3G&amp;9OD&lt;8K8&amp;-_"H:];#4(EV_WS,B"YO_a_CS`B)W\GA6?22A9+C&amp;3KXOS(C]8[5SJ(-!@V;:2-9B#?AEAM(X6IL6&amp;U!X`-? 2OM7%1!DQ)U&amp;26L3H_&lt;LS&gt;=!=X[MUD;%N905S*A0LE'-UF$Q(N0"RT.T2L[-75P-OP9Z&amp;7A&gt;&gt;-!.71-XT*D'3:4[+=#'03Z7V[?%-,KR</t>
-  </si>
-  <si>
-    <t>SDESa&gt;!</t>
-  </si>
-  <si>
-    <t>":-RI[5&lt;?OK4:.+4K9&lt;S(LHAS[AVP(+`"I.ZMF-!)JO&gt;a&gt;TF:1)H!/68SM_O9@M7DL2Ra2H%,;I@^*A6'\&lt;?`E_T3W' H?HJ]8[5+"F(J$&lt;GGX;I,IH&gt;$/8`N??)+H&gt;NT`CF0,+%75V])7-&lt;=?U_W*FO \HMD&lt;^"FNTH5V8 ?D'P:&lt;W72#NLT@XJ:VF5E</t>
-  </si>
-  <si>
-    <t>B[7T6;DG'H'U@4#W5E%1;AO2/&amp;X*.@0$= "-9G&amp;&lt;SM]&amp;E`aDGCA 03$!,%E0E:9H7#8@2W&gt;N@J?OEIN0'4EK`0U)]!!3#WX945PBI@2Q%SAFV6=D95)1VNI'0.D0U+LJS%&lt;0[,HG!UF-P/5HF?\ONGDFMH2:]"][(YTP[,J-NC0!(=8!Z^L60^]-BVE2[</t>
-  </si>
-  <si>
-    <t>K`YM%X&lt;</t>
-  </si>
-  <si>
-    <t>N9VO!+7C?001A`8FK+]G.%I83@Y1*&lt;8BF502BB]RV`85"JMLH3"[\U8IR&gt;=B3&amp;9"YOL-P%%)/+R/N46JT-IX:&gt;GR^HA$%;?PG6=4_A\C.ZLQ#)\&gt;)TO&amp;&gt;CI&lt;)Z0(E!#UM"I9X"K32&amp;IASVOUN#\3M92%N!+%1T_-WX%"ACG'(&lt;U7Z(J4+&lt;;B&amp;Q)3PDLWXF"&gt;)&lt;K\RM4+=U*0E\+F8X[V9='&amp;OR2^XQ0C:7/&gt;&gt;OC?</t>
-  </si>
-  <si>
-    <t>0$2GZOU9&amp;?aM,%M5E-`;64NFHW/NO(I5&lt;N)9W@V#&gt;FR10W.1C</t>
-  </si>
-  <si>
-    <t>ZCD$S</t>
-  </si>
-  <si>
-    <t>8M`#@'K^WL1?^4@%7]^RB&lt;6RI_+F/'S8],!*ATD7\U&lt;EGP4/JU+G'!&lt;]7.;C^%OPZZCR36EE9GWN Q+ZJ]];]+1\Q%S39!:W&amp;MMN-C]40H.B+O\G#BZ!)4TNIH!.D3+8,aH5$&gt;M'aI,5^PQ"*,0X)9NSY_&amp;EBNQ^&lt;W5+&amp;GCFUS"A(?QYY`%8#4/U2W=&amp;9(F2Y/Z';E]CJK#77.J:.-NCJ9[(HAZ0+&lt;-M,PI[FK&gt;3#BO81Y&gt;%-"Y+;$J@4R?[LL8.&gt;7+HFQUDP:?(KCXP#V$(D"2)')FV,EH8*A[[NW@=/6=!EBUR[PWXI0K=%"A&lt;*`8+S'_*I^"-6H[.F1EF5U\=NQP[X&gt;WL6$30^2/&gt;DL)^NJB!6&lt;XT&gt;\'6$\&gt;"8$3+'</t>
-  </si>
-  <si>
-    <t>X25K14"'!JL`P$/OD&lt;G".;^],"U-&amp;A9_V7S0MM+CR8[&gt;L%-9SJ@XE%)=58&gt;/@W!B2N)92`"Y0$1XA@2'V&lt;;= A:Q.6\5/]#\79,^]U'TIIHAU2]V'7:%&lt;EAR49*]$NJ4!6A(44,"5GU8</t>
-  </si>
-  <si>
-    <t>Z^];&amp;.YD_@SY;JDJ,P\`4@?RUBT+8QV</t>
-  </si>
-  <si>
-    <t>)Y;&lt;.B_?RQ"VO0YKI8)XZ9F:?+GD&lt;M,.L"PD/(&lt;JR=.D&gt;I#EJ)DaH_XQ3"^#\;$%FU+NA6&lt;A]@%=,"]W("[3*,GN*`1-+9O89)_J?7$4M##)Z;E1&amp;'\[@R\:.&gt;CB%/6DQO$#$38R_GF')&gt;UQ;a'$&gt;UXH.F&lt; TC0&gt;M@8+6B.TP*][,U1QJS'%(2']W&gt;U?X8_=7(;I&amp;J:ZS453Z_&lt;:5L7!&lt;*6;:&lt;5ZNP]8,@C#:IJ 9.3V^T#Z!;*,!^!-Sa0K5B,#8_':;9 M"7I.XA&gt;F9&lt;Y3EQ7/?71:9`LX"0&gt;aMK&gt;I:&gt;*K5S</t>
-  </si>
-  <si>
-    <t>3BJ3ZJZ?HHY[%(G4#KQ,H#?ZO_0Z'FL[M!_YPMS/)RW9UP9AT+'aEGO0$QE\:a8"\^.$*OE7YC#W-&amp;%`FP%^?L7&amp;3PU`(XU):U=XB57&amp;GQ("DX#_LF6K\;D0H(Q;[F/!O[=9I</t>
+    <t>/^Z2/</t>
+  </si>
+  <si>
+    <t>CS4^%N5=6:[&gt;$Z4Z3$E![50S&lt;TTX:^CZ1\I@!YZV_E6Z?\;IV6KVN.P.CBB2[&gt;"9X!-)0TY;,P#6`74A9+"$3N,#+&lt;^?7G\AC_"&gt;O29"&gt;0J_+;/,.!ZP&lt;_&amp;*V*_VW:$FVCT!5WT'SaG"%.YR-R26N+$DYYJE4E+$,$)IH-X8.S_&lt;8$%G3-I&amp;(PYJ?0*=./T.VCW!%0*aZ['[.I,US"2&amp;]%]&gt;,@*8#;*``PHV-%B##I-.H^=W#6K+^N2PH:UF&amp;S]?Q(\&gt;!8H</t>
+  </si>
+  <si>
+    <t>A/#4ZOV/#45OQ`"2&gt;Y.T0]^1LN&gt;@"_VLO]KOK_WZDFCS&gt;/OR&amp;K )*U?E2SI+16-%?IaU55G@!50K:+T=`M:8_MC[?&amp;=Z6LI.9&gt;4V/\=R#A(UET+'`+,E]V'S'%6/YO*6N"2^X_.%0I5&gt;EN6K\6Z+@$2D7BO*E.Z57S(CB.0!^'64AI.:PL4CV`WJQPG6/$@"Pa'RFT)N&amp;Y-9O_#N46;[[7A8]?STH[SZH4EAB=T]CH&gt;^S&gt;\SMZ#[JF(9@QV(!7&amp;,&amp;4Q;:B,WC?83ZDF?C!'OXY0",,!RHL\,</t>
+  </si>
+  <si>
+    <t>1X?NA9+M,8+.V@]+7E</t>
+  </si>
+  <si>
+    <t>075.$P/.A;/WD,RIM'S"I]"LA%T7L&amp;G1'\]+^J:_3*K2^BH"$Y/$EC846JNa\XC;U_QI0GL$NTP?1QO`=R3UWCMDDIV4];#;H0&gt;`R`S=,,7RTZ#F\OC*EOE22,%IR8(3R5X!2P.&gt;`WHK,\QLE09.YZWZL-NF\+LU$$ ?""4,A%+O'[%6&lt;:#B`[;Y?_5%"IDV+TG(\2JC]-NTO(SS'8*B'*V+J) $N.*YB6D44_;*QAFS-H)7,D_J?"N!`&lt;&gt;T1FVO#U19E@?*^`RGE#_"`KY*0A:AIC5Y@HZ+LXP97QRM%UM@1'=]?&lt;THNL?D;RR"+GK6&amp;G\N4FL/Y,%&lt;U\/A%9:$U2= 8,_F`PB?+79K-PIZQEOCG#P@B0^S-GBU*[6(H&amp;0)JG1&gt;BE56PA40D\;5</t>
+  </si>
+  <si>
+    <t>&gt;#PSP2EUEB2:A1K5FY S1_^]H#M321/A!L*#A7[4NJ^$#]/0J\`":C,@&amp;T+NG2C53R9W'HU._M%H!ZZLU=J72,'?@K^N--O&lt;'IR1D9)#'Q$N=E?-[@Z*I,"&amp;LZ7=K'"R_JA9(I(&lt;4G0B(9"\,QTM4ET]GKFK"L9 O3PT#'%28&gt;W"\A_2X&lt;2[</t>
+  </si>
+  <si>
+    <t>5&gt;:WFR&gt;"&gt;:I</t>
+  </si>
+  <si>
+    <t>0TWJ/Y%LA5WOS &amp;M4TG;?M:V6^?5H0\$.TLO(IIE-/T GL$EMRPKT.PD9!42:Q%1;SA_58EL+".0Z:/KZ[JWA11</t>
+  </si>
+  <si>
+    <t>$)</t>
+  </si>
+  <si>
+    <t>(56+=*CGV+&amp;</t>
+  </si>
+  <si>
+    <t>4-$@R AK`SJ:@'/Q*B@[,#=7VXR&amp;7T:@TJ5J&gt;R@ D?66L^L5]S=4L,$2QNK[/;3,9*GWSE39"@7ON'LY,=*E8&amp;UHF$[P&amp;FR)+*^B</t>
+  </si>
+  <si>
+    <t>VC8@#2,V6EJ#TOS1OV36_0PKD3&lt;O-CD**B7ZS&amp;4UIT0@1N4X`Y=5K,9FUN]RW&gt;HT @Z28Z?IA?N, 0:X`EP5&amp;/@_)R&amp;&amp;*D_,+=@SU"@&amp;:UU,?-FE4%R2O3NR [)GT:?_AB!DQH#^%J\2;3A</t>
+  </si>
+  <si>
+    <t>,BS%RM&gt;YPNSZZZ3 6WL^-"UL"U-$8&lt;7N;</t>
+  </si>
+  <si>
+    <t>&lt;2H:-U$(V#W*%,8\]EHDP*N&amp;#^A:A38%?L&gt;!9]JWZ$-RWZQ N=@S%X?2EA7/5KHBLRK:O7Ca\RKK]^0*.@M%T</t>
+  </si>
+  <si>
+    <t>`H-,=YF;C/=L&amp;%.727[AX4.U6H1-"V`CO&amp;R$-C[K:A/&lt;.1X+]X.6+3OL:9XVH:9N0[^a4+*Q=0&amp;7%SG$Q&amp;0+HJ8&lt;8&amp;JUL%#!(B,44XYSN&gt;Y\-8GHTS%B*.&amp;GCBI.A6%9-&amp;/DG3Q[.&gt;?*Q=/`@"!Z AXZ&lt;ERS.K27:AN()#!A"+4LP^W%4JN?5,8M/6("A`LD-(Q1P'W=!AXV-,*?OM?E^T".(!ZT\`a#@Q?I-F6-T1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="204"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -170,9 +169,9 @@
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -205,9 +204,9 @@
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
